--- a/TP1/tablas/13.xlsx
+++ b/TP1/tablas/13.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111100001001101111111101000100</t>
+          <t>111101000010110000110111000001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8833747844880103</v>
+        <v>0.9097338043760219</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04688518607523501</v>
+        <v>0.06909138166141518</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3695524659914686</v>
+        <v>0.3985843274486325</v>
       </c>
     </row>
     <row r="3">
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111100001001101111111101000100</t>
+          <t>111101011001110110010100111101</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8833747844880103</v>
+        <v>0.9205169757907861</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1522459242648453</v>
+        <v>0.4628926776578759</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6504626497732916</v>
+        <v>0.7773979506887685</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111100001101110111001100001101</t>
+          <t>111101011001110110010100111101</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8852633877629041</v>
+        <v>0.9205169757907861</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8362911770348166</v>
+        <v>0.4953339706513745</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8698062542880003</v>
+        <v>0.8704501706201248</v>
       </c>
     </row>
     <row r="5">
@@ -535,17 +535,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101011010110000110111000001</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9209454765071264</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7697960097758151</v>
+        <v>0.9093079202541157</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8651889712675185</v>
+        <v>0.9130195768543501</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +557,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101011010110000010100111101</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9209415797519598</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7697960097758151</v>
+        <v>0.9092681414866814</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8698973318038912</v>
+        <v>0.9118521012717249</v>
       </c>
     </row>
     <row r="7">
@@ -579,17 +579,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>111110100001101111111101010110</t>
+          <t>111101011010110000010100111101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9545086563867802</v>
+        <v>0.9209415797519598</v>
       </c>
       <c r="E7" t="n">
-        <v>0.838128881200076</v>
+        <v>0.9092681414866814</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8885523476151332</v>
+        <v>0.9118480999705818</v>
       </c>
     </row>
     <row r="8">
@@ -601,17 +601,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111110100001101111111101010110</t>
+          <t>111101011010110000010100100001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9545086563867802</v>
+        <v>0.9209415297019471</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8833746724455631</v>
+        <v>0.9092681414866814</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9047149147714164</v>
+        <v>0.9129606498761735</v>
       </c>
     </row>
     <row r="9">
@@ -623,17 +623,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111110100001101111111101010110</t>
+          <t>111101011001110110110111000001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9545086563867802</v>
+        <v>0.9205208716475425</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8833746759468895</v>
+        <v>0.9092681414866814</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9189416938087144</v>
+        <v>0.9107186039327489</v>
       </c>
     </row>
     <row r="10">
@@ -645,17 +645,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111110100001101111111101010110</t>
+          <t>111101000010110000110111001101</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9545086563867802</v>
+        <v>0.909733825695106</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8833747844880103</v>
+        <v>0.9092681414866814</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9331684664285049</v>
+        <v>0.9095933309166673</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101000010110000110111000001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9097338043760219</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8833747004561742</v>
+        <v>0.9092681414866814</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9402818473989398</v>
+        <v>0.909593328784759</v>
       </c>
     </row>
     <row r="12">
@@ -689,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101000011110000110111000001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9101995864746523</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8833747844880103</v>
+        <v>0.9088025978066306</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9473952309814205</v>
+        <v>0.909593350494713</v>
       </c>
     </row>
     <row r="13">
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101000011110000110111000001</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9101995864746523</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8833747844880103</v>
+        <v>0.9088025978066306</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9402818470671563</v>
+        <v>0.9097334507106265</v>
       </c>
     </row>
     <row r="14">
@@ -733,17 +733,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101000011110000110111000001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9101995864746523</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8944233378309153</v>
+        <v>0.9088025978066306</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9473586186225695</v>
+        <v>0.909686483072581</v>
       </c>
     </row>
     <row r="15">
@@ -755,17 +755,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101000011110000110111000001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9101995864746523</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8944233378309153</v>
+        <v>0.9088025978066306</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9485000950506782</v>
+        <v>0.9097322823263987</v>
       </c>
     </row>
     <row r="16">
@@ -777,17 +777,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101000011110000110111000001</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9101995864746523</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8944233378309153</v>
+        <v>0.9097299100941983</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9424915664707045</v>
+        <v>0.9098250136482366</v>
       </c>
     </row>
     <row r="17">
@@ -799,17 +799,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101000011110000110111000001</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9101995864746523</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8944233378309153</v>
+        <v>0.9097299100941983</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9424915664707045</v>
+        <v>0.9097780460167908</v>
       </c>
     </row>
     <row r="18">
@@ -821,17 +821,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101000011110000110111000001</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9101995864746523</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8944233378309153</v>
+        <v>0.9097299100941983</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9364830378907308</v>
+        <v>0.9098246242266539</v>
       </c>
     </row>
     <row r="19">
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101000011110000110111000001</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9101995864746523</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8944233378309153</v>
+        <v>0.9097299100941983</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9244659807307836</v>
+        <v>0.9097776565886084</v>
       </c>
     </row>
     <row r="20">
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101000011110000110111000001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9101995864746523</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8944233378309153</v>
+        <v>0.9097299100941983</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9244659807307836</v>
+        <v>0.9098715918646993</v>
       </c>
     </row>
     <row r="21">
@@ -887,17 +887,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>111110100001101111111101000100</t>
+          <t>111101000011110000110111000001</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9545086236306519</v>
+        <v>0.9101995864746523</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8944233378309153</v>
+        <v>0.9097299100941983</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9304745093107571</v>
+        <v>0.9098715918646991</v>
       </c>
     </row>
   </sheetData>
